--- a/Original/CN/Game/Calc.xlsx
+++ b/Original/CN/Game/Calc.xlsx
@@ -26,7 +26,7 @@
     <t xml:space="preserve">SpHolyVeil</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.120</t>
+    <t xml:space="preserve">EA 23.129</t>
   </si>
   <si>
     <t xml:space="preserve">SpHero</t>

--- a/Original/CN/Game/Calc.xlsx
+++ b/Original/CN/Game/Calc.xlsx
@@ -26,7 +26,7 @@
     <t xml:space="preserve">SpHolyVeil</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.129</t>
+    <t xml:space="preserve">EA 23.152</t>
   </si>
   <si>
     <t xml:space="preserve">SpHero</t>

--- a/Original/CN/Game/Calc.xlsx
+++ b/Original/CN/Game/Calc.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="47">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -26,7 +26,7 @@
     <t xml:space="preserve">SpHolyVeil</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.152</t>
+    <t xml:space="preserve">EA 23.200</t>
   </si>
   <si>
     <t xml:space="preserve">SpHero</t>
@@ -65,6 +65,9 @@
     <t xml:space="preserve">sword_</t>
   </si>
   <si>
+    <t xml:space="preserve">SpMoonSpear</t>
+  </si>
+  <si>
     <t xml:space="preserve">SpMeteor</t>
   </si>
   <si>
@@ -138,6 +141,9 @@
   </si>
   <si>
     <t xml:space="preserve">EA 23.117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.191</t>
   </si>
   <si>
     <t xml:space="preserve">Beta 22.57</t>
@@ -231,7 +237,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4">
@@ -239,7 +245,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5">
@@ -247,7 +253,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6">
@@ -255,7 +261,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
@@ -263,7 +269,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8">
@@ -271,7 +277,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
@@ -279,7 +285,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10">
@@ -287,7 +293,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11">
@@ -295,7 +301,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12">
@@ -303,7 +309,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13">
@@ -311,7 +317,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14">
@@ -319,7 +325,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15">
@@ -327,7 +333,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16">
@@ -335,7 +341,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17">
@@ -343,7 +349,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18">
@@ -351,7 +357,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19">
@@ -359,7 +365,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20">
@@ -367,7 +373,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21">
@@ -375,7 +381,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
@@ -383,7 +389,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23">
@@ -391,7 +397,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24">
@@ -399,7 +405,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25">
@@ -407,7 +413,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26">
@@ -415,7 +421,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27">
@@ -423,7 +429,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28">
@@ -439,7 +445,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30">
@@ -447,7 +453,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31">
@@ -455,7 +461,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32">
@@ -471,7 +477,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34">
@@ -479,7 +485,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35">
@@ -487,7 +493,15 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>44</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Original/CN/Game/Calc.xlsx
+++ b/Original/CN/Game/Calc.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="51">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -26,7 +26,7 @@
     <t xml:space="preserve">SpHolyVeil</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.200</t>
+    <t xml:space="preserve">EA 23.252</t>
   </si>
   <si>
     <t xml:space="preserve">SpHero</t>
@@ -50,6 +50,9 @@
     <t xml:space="preserve">ball_</t>
   </si>
   <si>
+    <t xml:space="preserve">flare_</t>
+  </si>
+  <si>
     <t xml:space="preserve">bolt_</t>
   </si>
   <si>
@@ -65,6 +68,9 @@
     <t xml:space="preserve">sword_</t>
   </si>
   <si>
+    <t xml:space="preserve">SpMoonArrow</t>
+  </si>
+  <si>
     <t xml:space="preserve">SpMoonSpear</t>
   </si>
   <si>
@@ -140,7 +146,13 @@
     <t xml:space="preserve">EA 23.74</t>
   </si>
   <si>
+    <t xml:space="preserve">EA 23.220</t>
+  </si>
+  <si>
     <t xml:space="preserve">EA 23.117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EA 23.202</t>
   </si>
   <si>
     <t xml:space="preserve">EA 23.191</t>
@@ -237,7 +249,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4">
@@ -245,7 +257,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5">
@@ -253,7 +265,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6">
@@ -261,7 +273,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7">
@@ -269,7 +281,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8">
@@ -277,7 +289,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9">
@@ -285,7 +297,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10">
@@ -293,7 +305,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11">
@@ -301,7 +313,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12">
@@ -309,7 +321,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13">
@@ -317,7 +329,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14">
@@ -325,7 +337,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15">
@@ -333,7 +345,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16">
@@ -341,7 +353,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17">
@@ -349,7 +361,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18">
@@ -357,7 +369,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19">
@@ -365,7 +377,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20">
@@ -373,7 +385,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21">
@@ -381,7 +393,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22">
@@ -389,7 +401,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23">
@@ -397,7 +409,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24">
@@ -405,7 +417,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25">
@@ -413,7 +425,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26">
@@ -421,7 +433,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27">
@@ -429,7 +441,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28">
@@ -437,7 +449,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29">
@@ -445,7 +457,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30">
@@ -453,7 +465,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31">
@@ -461,7 +473,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32">
@@ -469,7 +481,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33">
@@ -477,7 +489,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34">
@@ -485,7 +497,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35">
@@ -493,7 +505,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36">
@@ -501,7 +513,23 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Original/CN/Game/Calc.xlsx
+++ b/Original/CN/Game/Calc.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="47">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -26,7 +26,7 @@
     <t xml:space="preserve">SpHolyVeil</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.252</t>
+    <t xml:space="preserve">EA 23.200</t>
   </si>
   <si>
     <t xml:space="preserve">SpHero</t>
@@ -50,9 +50,6 @@
     <t xml:space="preserve">ball_</t>
   </si>
   <si>
-    <t xml:space="preserve">flare_</t>
-  </si>
-  <si>
     <t xml:space="preserve">bolt_</t>
   </si>
   <si>
@@ -68,9 +65,6 @@
     <t xml:space="preserve">sword_</t>
   </si>
   <si>
-    <t xml:space="preserve">SpMoonArrow</t>
-  </si>
-  <si>
     <t xml:space="preserve">SpMoonSpear</t>
   </si>
   <si>
@@ -146,13 +140,7 @@
     <t xml:space="preserve">EA 23.74</t>
   </si>
   <si>
-    <t xml:space="preserve">EA 23.220</t>
-  </si>
-  <si>
     <t xml:space="preserve">EA 23.117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EA 23.202</t>
   </si>
   <si>
     <t xml:space="preserve">EA 23.191</t>
@@ -249,7 +237,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4">
@@ -257,7 +245,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5">
@@ -265,7 +253,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6">
@@ -273,7 +261,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
@@ -281,7 +269,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8">
@@ -289,7 +277,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
@@ -297,7 +285,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10">
@@ -305,7 +293,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11">
@@ -313,7 +301,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12">
@@ -321,7 +309,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13">
@@ -329,7 +317,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14">
@@ -337,7 +325,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15">
@@ -345,7 +333,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16">
@@ -353,7 +341,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17">
@@ -361,7 +349,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18">
@@ -369,7 +357,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19">
@@ -377,7 +365,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20">
@@ -385,7 +373,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21">
@@ -393,7 +381,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22">
@@ -401,7 +389,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23">
@@ -409,7 +397,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24">
@@ -417,7 +405,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25">
@@ -425,7 +413,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26">
@@ -433,7 +421,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27">
@@ -441,7 +429,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28">
@@ -449,7 +437,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29">
@@ -457,7 +445,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30">
@@ -465,7 +453,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31">
@@ -473,7 +461,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="32">
@@ -481,7 +469,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33">
@@ -489,7 +477,7 @@
         <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34">
@@ -497,7 +485,7 @@
         <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35">
@@ -505,7 +493,7 @@
         <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="36">
@@ -513,23 +501,7 @@
         <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
